--- a/medicine/Autisme/Code_Mercury/Code_Mercury.xlsx
+++ b/medicine/Autisme/Code_Mercury/Code_Mercury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Code Mercury ou Mercure à la hausse au Québec (Mercury Rising) est un film américain réalisé par Harold Becker, sorti en 1998.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Art Jeffries, agent du FBI est relégué à des tâches subalternes à la suite d'une altercation avec un supérieur dont le manque de professionnalisme a provoqué un carnage lors d'une prise d'otages.
 Un jour, on fait cependant appel à lui pour protéger Simon, un autiste de 9 ans dont les parents ont été assassinés après le déchiffrage par l'enfant d'un nouveau code secret de la NSA réputé inviolable : le code « Mercury ».
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Mercury Rising
 Titre français : Code Mercury
@@ -571,7 +587,7 @@
 Belgique : 29 avril 1998
 France : 6 mai 1998
 Classification :
-France : tous publics avec avertissement[1]</t>
+France : tous publics avec avertissement</t>
         </is>
       </c>
     </row>
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bruce Willis (VF : Patrick Poivey) : agent spécial du FBI Arthur "Art" Jeffries
 Miko Hughes : Simon Lynch
@@ -653,12 +671,14 @@
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est mal reçu par la critique à sa sortie en salles, obtenant un taux d'approbation de 21 % sur le site Rotten Tomatoes, sur la base de 57 critiques collectées et une note de 4,4⁄10[2], tout en notant dans son consensus que « Mercury Rising met l'action à fond, mais ne parvient jamais à trouver une impulsion dramatique pour garder les téléspectateurs – ou Bruce Willis – engagés dans son histoire larmoyant »[2]. Sur le site Metacritic, le long-métrage obtient un score moyen de 37⁄100, basé sur 25 critiques collectées et une mention « avis généralement négatifs »[3].
-Il est également un échec commercial[4], rapportant que près de 32 983 332 $ de recettes aux États-Unis[5]. Lors de son démarrage américain pour son premier week-end à l'affiche où il est diffusé dans 2 386 salles, Code Mercury s'est contenté d'une troisième place avec plus de 10 100 000 $ engrangées au box-office américain, dominé par Perdus dans l'espace, sorti le même jour et qui sera également un flop[4],[6]. Malgré une augmentation de 13 salles le week-end suivant, le film connaît une forte chute avec 5 500 000 $ de recettes, soit une baisse de 46 % par rapport à son démarrage, pour un total approchant les 19 000 000 $ depuis sa sortie[6]. Le bouche-à-oreille défavorable et le démarrage en deçà des attentes ont conduit à l'échec au box-office du film. Pour Universal Pictures, qui a produit Code Mercury, il s'agit du deuxième flop d'envergure après Primary Colors, sorti deux semaines plus tôt, entraînant la démission forcée de quatre dirigeants du studio[4].
-Toutefois, il s'est relativement bien comporté au box-office international avec 60 172 000 $[6], portant le total à 93 155 332 $ dans le monde[7]. Ce résultat en demi-teinte ne permet pas à Universal de faire des profits, qui obtiendrait qu'environ 51,2 millions de dollars une fois que les cinémas prendraient leur pourcentage du brut, ce qui laisserait une partie des dépenses mondiales P&amp;A dans le rouge et le budget intact par les recettes des salles[4].
-En France, Code Mercury occupe la cinquième place du box-office durant deux semaines consécutives dès sa sortie avec un cumul de 339 099 entrées, dont un démarrage à 238 948 entrées[7]. Son exploitation en salles se finit avec 491 840 entrées[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est mal reçu par la critique à sa sortie en salles, obtenant un taux d'approbation de 21 % sur le site Rotten Tomatoes, sur la base de 57 critiques collectées et une note de 4,4⁄10, tout en notant dans son consensus que « Mercury Rising met l'action à fond, mais ne parvient jamais à trouver une impulsion dramatique pour garder les téléspectateurs – ou Bruce Willis – engagés dans son histoire larmoyant ». Sur le site Metacritic, le long-métrage obtient un score moyen de 37⁄100, basé sur 25 critiques collectées et une mention « avis généralement négatifs ».
+Il est également un échec commercial, rapportant que près de 32 983 332 $ de recettes aux États-Unis. Lors de son démarrage américain pour son premier week-end à l'affiche où il est diffusé dans 2 386 salles, Code Mercury s'est contenté d'une troisième place avec plus de 10 100 000 $ engrangées au box-office américain, dominé par Perdus dans l'espace, sorti le même jour et qui sera également un flop,. Malgré une augmentation de 13 salles le week-end suivant, le film connaît une forte chute avec 5 500 000 $ de recettes, soit une baisse de 46 % par rapport à son démarrage, pour un total approchant les 19 000 000 $ depuis sa sortie. Le bouche-à-oreille défavorable et le démarrage en deçà des attentes ont conduit à l'échec au box-office du film. Pour Universal Pictures, qui a produit Code Mercury, il s'agit du deuxième flop d'envergure après Primary Colors, sorti deux semaines plus tôt, entraînant la démission forcée de quatre dirigeants du studio.
+Toutefois, il s'est relativement bien comporté au box-office international avec 60 172 000 $, portant le total à 93 155 332 $ dans le monde. Ce résultat en demi-teinte ne permet pas à Universal de faire des profits, qui obtiendrait qu'environ 51,2 millions de dollars une fois que les cinémas prendraient leur pourcentage du brut, ce qui laisserait une partie des dépenses mondiales P&amp;A dans le rouge et le budget intact par les recettes des salles.
+En France, Code Mercury occupe la cinquième place du box-office durant deux semaines consécutives dès sa sortie avec un cumul de 339 099 entrées, dont un démarrage à 238 948 entrées. Son exploitation en salles se finit avec 491 840 entrées.
 </t>
         </is>
       </c>
@@ -687,7 +707,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Razzie Awards 1999 du pire acteur pour Bruce Willis
 Young Artist Awards 1999 du meilleur jeune acteur dans un rôle principal pour Miko Hughes</t>
